--- a/results/OpenSource Tools/C - OpenSource tools (RossetaCode).xlsx
+++ b/results/OpenSource Tools/C - OpenSource tools (RossetaCode).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\OpenSource Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\OpenSource Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AE95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+    <sheetView tabSelected="1" topLeftCell="S38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3669,28 +3669,28 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.3">
       <c r="X51" s="12">
-        <f>_xlfn.STDEV.S(C48,M48)</f>
-        <v>62.157103915291266</v>
+        <f>_xlfn.STDEV.P(C48,M48)</f>
+        <v>43.951709677419359</v>
       </c>
       <c r="Y51" s="3">
-        <f>_xlfn.STDEV.S(E48,N48)</f>
-        <v>28.889493825767886</v>
+        <f>_xlfn.STDEV.P(E48,N48)</f>
+        <v>20.42795698924737</v>
       </c>
       <c r="Z51" s="3">
-        <f>_xlfn.STDEV.S(F48,O48)</f>
-        <v>681.37722441077256</v>
+        <f>_xlfn.STDEV.P(F48,O48)</f>
+        <v>481.80645592692525</v>
       </c>
       <c r="AA51" s="3">
-        <f>_xlfn.STDEV.S(H48,Q48)</f>
-        <v>23.922814953233665</v>
+        <f>_xlfn.STDEV.P(H48,Q48)</f>
+        <v>16.915984678502465</v>
       </c>
       <c r="AB51" s="3">
-        <f>_xlfn.STDEV.S(L48,S48)</f>
-        <v>2.5473939973675095</v>
+        <f>_xlfn.STDEV.P(L48,S48)</f>
+        <v>1.8012795698924722</v>
       </c>
       <c r="AC51" s="3">
-        <f>_xlfn.STDEV.S(J48,R48)</f>
-        <v>6.4490879796540179</v>
+        <f>_xlfn.STDEV.P(J48,R48)</f>
+        <v>4.5601938428820077</v>
       </c>
       <c r="AD51" s="3"/>
       <c r="AE51" s="30" t="s">
@@ -3699,28 +3699,28 @@
     </row>
     <row r="52" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X52" s="12">
-        <f>_xlfn.VAR.S(C48,M48)</f>
-        <v>3863.505567136317</v>
+        <f>_xlfn.VAR.P(C48,M48)</f>
+        <v>1931.7527835681585</v>
       </c>
       <c r="Y52" s="3">
-        <f>_xlfn.VAR.S(E48,N48)</f>
-        <v>834.60285350908089</v>
+        <f>_xlfn.VAR.P(E48,N48)</f>
+        <v>417.30142675454044</v>
       </c>
       <c r="Z52" s="3">
-        <f>_xlfn.VAR.S(F48,O48)</f>
-        <v>464274.92194572836</v>
+        <f>_xlfn.VAR.P(F48,O48)</f>
+        <v>232137.46097286418</v>
       </c>
       <c r="AA52" s="3">
-        <f>_xlfn.VAR.S(H48,Q48)</f>
-        <v>572.30107528666031</v>
+        <f>_xlfn.VAR.P(H48,Q48)</f>
+        <v>286.15053764333015</v>
       </c>
       <c r="AB52" s="3">
-        <f>_xlfn.VAR.S(L48,S48)</f>
-        <v>6.4892161778240194</v>
+        <f>_xlfn.VAR.P(L48,S48)</f>
+        <v>3.2446080889120097</v>
       </c>
       <c r="AC52" s="3">
-        <f>_xlfn.VAR.S(J48,R48)</f>
-        <v>41.590735769317945</v>
+        <f>_xlfn.VAR.P(J48,R48)</f>
+        <v>20.795367884658972</v>
       </c>
       <c r="AD52" s="3"/>
       <c r="AE52" s="30" t="s">
@@ -4784,20 +4784,20 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K93" s="12">
-        <f>_xlfn.STDEV.S(C90,G90)</f>
-        <v>6.5859773533740578</v>
+        <f>_xlfn.STDEV.P(C90,G90)</f>
+        <v>4.6569892473118273</v>
       </c>
       <c r="L93" s="3">
-        <f>_xlfn.STDEV.S(D90,H90)</f>
-        <v>22.303516472393731</v>
+        <f>_xlfn.STDEV.P(D90,H90)</f>
+        <v>15.770967741935474</v>
       </c>
       <c r="M93" s="12">
-        <f>_xlfn.STDEV.S(E90,I90)</f>
-        <v>10.734337136335142</v>
+        <f>_xlfn.STDEV.P(E90,I90)</f>
+        <v>7.5903225806451644</v>
       </c>
       <c r="N93" s="3">
-        <f>_xlfn.STDEV.S(F90,J90)</f>
-        <v>55.285105670576549</v>
+        <f>_xlfn.STDEV.P(F90,J90)</f>
+        <v>39.092473118279528</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="30" t="s">
@@ -4806,20 +4806,20 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K94" s="12">
-        <f>_xlfn.VAR.S(C90,G90)</f>
-        <v>43.375097699155958</v>
+        <f>_xlfn.VAR.P(C90,G90)</f>
+        <v>21.687548849577979</v>
       </c>
       <c r="L94" s="3">
-        <f>_xlfn.VAR.S(D90,H90)</f>
-        <v>497.44684703433859</v>
+        <f>_xlfn.VAR.P(D90,H90)</f>
+        <v>248.72342351716929</v>
       </c>
       <c r="M94" s="12">
-        <f>_xlfn.VAR.S(E90,I90)</f>
-        <v>115.22599375650374</v>
+        <f>_xlfn.VAR.P(E90,I90)</f>
+        <v>57.61299687825187</v>
       </c>
       <c r="N94" s="3">
-        <f>_xlfn.VAR.S(F90,J90)</f>
-        <v>3056.4429090068152</v>
+        <f>_xlfn.VAR.P(F90,J90)</f>
+        <v>1528.2214545034076</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="30" t="s">

--- a/results/OpenSource Tools/C - OpenSource tools (RossetaCode).xlsx
+++ b/results/OpenSource Tools/C - OpenSource tools (RossetaCode).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>aks-test-for-primes.c</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>TPTR</t>
+  </si>
+  <si>
+    <t>Microsoft MI</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -635,6 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,14 +925,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AE95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC57" sqref="AC55:AC57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.44140625" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" customWidth="1"/>
@@ -933,6 +941,7 @@
     <col min="19" max="19" width="11.77734375" customWidth="1"/>
     <col min="20" max="20" width="10.6640625" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
@@ -3483,13 +3492,6 @@
       <c r="X47" s="40">
         <v>117</v>
       </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
     </row>
     <row r="48" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
@@ -3577,179 +3579,218 @@
         <f t="shared" si="14"/>
         <v>2.9787096774193556</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X48" s="9">
+        <f>AVERAGE(X17:X47)</f>
+        <v>51.58064516129032</v>
+      </c>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="K49" s="48">
+        <f>MAX(0,(171 - 5.2 * LN(G48) - 0.23 * (L48) - 16.2 * LN(X48))*100 / 171)</f>
+        <v>38.387383452071127</v>
+      </c>
+      <c r="R49" s="48">
+        <f>MAX(0,(171 - 5.2 * LN(N48) - 0.23 * (S48) - 16.2 * LN(X48))*100 / 171)</f>
+        <v>48.384401673868538</v>
+      </c>
+      <c r="U49" s="3"/>
+      <c r="X49" s="27">
         <f>AVERAGE(C48,M48)</f>
         <v>449.27429032258067</v>
       </c>
-      <c r="Y48" s="28">
+      <c r="Y49" s="28">
         <f>AVERAGE(E48,N48)</f>
         <v>97.105376344086011</v>
       </c>
-      <c r="Z48" s="28">
+      <c r="Z49" s="28">
         <f>AVERAGE(F48,O48)</f>
         <v>2185.6064559269257</v>
       </c>
-      <c r="AA48" s="28">
+      <c r="AA49" s="28">
         <f>AVERAGE(H48,Q48)</f>
         <v>55.050681988164214</v>
       </c>
-      <c r="AB48" s="28">
+      <c r="AB49" s="28">
         <f>AVERAGE(L48,S48)</f>
         <v>6.1019462365591401</v>
       </c>
-      <c r="AC48" s="28">
+      <c r="AC49" s="28">
         <f>AVERAGE(J48,R48)</f>
         <v>74.606472823784657</v>
       </c>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="30" t="s">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="U49" s="3"/>
-      <c r="X49" s="27">
+    <row r="50" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K50" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="R50" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="X50" s="27">
         <f>MIN(C48,M48)</f>
         <v>405.32258064516128</v>
       </c>
-      <c r="Y49" s="28">
+      <c r="Y50" s="28">
         <f>MIN(E48,N48)</f>
         <v>76.677419354838705</v>
       </c>
-      <c r="Z49" s="28">
+      <c r="Z50" s="28">
         <f>MIN(F48,O48)</f>
         <v>1703.8</v>
       </c>
-      <c r="AA49" s="28">
+      <c r="AA50" s="28">
         <f>MIN(H48,Q48)</f>
         <v>38.134697309661767</v>
       </c>
-      <c r="AB49" s="28">
+      <c r="AB50" s="28">
         <f>MIN(L48,S48)</f>
         <v>4.3006666666666673</v>
       </c>
-      <c r="AC49" s="28">
+      <c r="AC50" s="28">
         <f>MIN(J48,R48)</f>
         <v>70.046278980902656</v>
       </c>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="30" t="s">
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="X50" s="27">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="X51" s="27">
         <f>MAX(C48,M48)</f>
         <v>493.226</v>
       </c>
-      <c r="Y50" s="28">
+      <c r="Y51" s="28">
         <f>MAX(E48,N48)</f>
         <v>117.53333333333333</v>
       </c>
-      <c r="Z50" s="28">
+      <c r="Z51" s="28">
         <f>MAX(F48,O48)</f>
         <v>2667.4129118538513</v>
       </c>
-      <c r="AA50" s="28">
+      <c r="AA51" s="28">
         <f>MAX(H48,Q48)</f>
         <v>71.966666666666669</v>
       </c>
-      <c r="AB50" s="28">
+      <c r="AB51" s="28">
         <f>MAX(L48,S48)</f>
         <v>7.903225806451613</v>
       </c>
-      <c r="AC50" s="28">
+      <c r="AC51" s="28">
         <f>MAX(J48,R48)</f>
         <v>79.166666666666671</v>
       </c>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="30" t="s">
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="X51" s="12">
+    <row r="52" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X52" s="12">
         <f>_xlfn.STDEV.P(C48,M48)</f>
         <v>43.951709677419359</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y52" s="3">
         <f>_xlfn.STDEV.P(E48,N48)</f>
         <v>20.42795698924737</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z52" s="3">
         <f>_xlfn.STDEV.P(F48,O48)</f>
         <v>481.80645592692525</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA52" s="3">
         <f>_xlfn.STDEV.P(H48,Q48)</f>
         <v>16.915984678502465</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AB52" s="3">
         <f>_xlfn.STDEV.P(L48,S48)</f>
         <v>1.8012795698924722</v>
       </c>
-      <c r="AC51" s="3">
+      <c r="AC52" s="3">
         <f>_xlfn.STDEV.P(J48,R48)</f>
         <v>4.5601938428820077</v>
       </c>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="30" t="s">
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="X52" s="12">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="X53" s="12">
         <f>_xlfn.VAR.P(C48,M48)</f>
         <v>1931.7527835681585</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y53" s="3">
         <f>_xlfn.VAR.P(E48,N48)</f>
         <v>417.30142675454044</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z53" s="3">
         <f>_xlfn.VAR.P(F48,O48)</f>
         <v>232137.46097286418</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA53" s="3">
         <f>_xlfn.VAR.P(H48,Q48)</f>
         <v>286.15053764333015</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB53" s="3">
         <f>_xlfn.VAR.P(L48,S48)</f>
         <v>3.2446080889120097</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC53" s="3">
         <f>_xlfn.VAR.P(J48,R48)</f>
         <v>20.795367884658972</v>
       </c>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="30" t="s">
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X53" s="34" t="s">
+    <row r="54" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X54" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="Y53" s="4" t="s">
+      <c r="Y54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Z53" s="4" t="s">
+      <c r="Z54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA53" s="4" t="s">
+      <c r="AA54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AB53" s="4" t="s">
+      <c r="AB54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC53" s="4" t="s">
+      <c r="AC54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="5"/>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="5"/>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AC55" s="48">
+        <f>AVERAGE(K49,R49)</f>
+        <v>43.385892562969829</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AC56" s="39">
+        <f>_xlfn.STDEV.P(K49,R49)</f>
+        <v>4.9985091108987429</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="46" t="s">
         <v>32</v>
@@ -3763,6 +3804,9 @@
       <c r="H57" s="47"/>
       <c r="I57" s="3"/>
       <c r="J57" s="2"/>
+      <c r="AC57" s="49" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
